--- a/hasil/2023_01_lipa_16.xlsx
+++ b/hasil/2023_01_lipa_16.xlsx
@@ -70,7 +70,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 08 Agustus 2023</t>
+    <t>Ternate , 06 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
